--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -12,42 +12,30 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Tên</t>
+    <t>Email</t>
   </si>
   <si>
-    <t>Mô tả</t>
+    <t>Họ tên</t>
   </si>
   <si>
-    <t>Trạng thái</t>
+    <t>Vai trò</t>
   </si>
   <si>
-    <t>1</t>
+    <t>Số tin nhắn</t>
   </si>
   <si>
-    <t>abcd</t>
+    <t>Số công việc</t>
   </si>
   <si>
-    <t>Đang hoạt động</t>
+    <t>Số cuộc hẹn tham gia</t>
   </si>
   <si>
-    <t>2</t>
-  </si>
-  <si>
-    <t>abcd3</t>
-  </si>
-  <si>
-    <t>3</t>
-  </si>
-  <si>
-    <t>abcd4</t>
-  </si>
-  <si>
-    <t>Đã xoá</t>
+    <t>Lần hoạt động gần nhất</t>
   </si>
 </sst>
 </file>
@@ -70,7 +58,7 @@
       <b val="true"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,28 +75,8 @@
         <fgColor indexed="12"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="41"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="none">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor indexed="9"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="5">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -116,50 +84,33 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <top style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
   </cellXfs>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
     <col min="1" max="1" width="4.6953125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="6.4609375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.37890625" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="15.39453125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="6.265625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="7.34375" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="7.42578125" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="11.77734375" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="12.83984375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="21.25" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="23.59765625" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -175,47 +126,17 @@
       <c r="D1" t="s" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="2" t="s">
+      <c r="E1" t="s" s="1">
         <v>4</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="F1" t="s" s="1">
         <v>5</v>
       </c>
-      <c r="C2" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" s="2" t="s">
+      <c r="G1" t="s" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="3" t="s">
+      <c r="H1" t="s" s="1">
         <v>7</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>10</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/src/output.xlsx
+++ b/src/output.xlsx
@@ -12,33 +12,394 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="129">
   <si>
     <t>STT</t>
   </si>
   <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Họ tên</t>
+    <t>Tên nhóm</t>
+  </si>
+  <si>
+    <t>Loại nhóm</t>
+  </si>
+  <si>
+    <t>Trạng thái</t>
+  </si>
+  <si>
+    <t>Thời gian bắt đầu</t>
+  </si>
+  <si>
+    <t>Thời gian kết thúc</t>
+  </si>
+  <si>
+    <t>Thời hạn</t>
   </si>
   <si>
     <t>1</t>
   </si>
   <si>
-    <t>dqvinh20@clc.fitus.edu.vn</t>
-  </si>
-  <si>
-    <t>Vinh</t>
+    <t>Test time group 1</t>
+  </si>
+  <si>
+    <t>Loại nhóm mới</t>
+  </si>
+  <si>
+    <t>Đã xóa</t>
+  </si>
+  <si>
+    <t>01/05/2024</t>
+  </si>
+  <si>
+    <t>30/05/2024</t>
+  </si>
+  <si>
+    <t>29 ngày</t>
   </si>
   <si>
     <t>2</t>
   </si>
   <si>
-    <t>hieucckha@gmail.com</t>
-  </si>
-  <si>
-    <t>Hiếu</t>
+    <t>Nhosm mowis</t>
+  </si>
+  <si>
+    <t>Hết thời hạn</t>
+  </si>
+  <si>
+    <t>12/05/2024</t>
+  </si>
+  <si>
+    <t>13/05/2024</t>
+  </si>
+  <si>
+    <t>2 ngày</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>Test forward222</t>
+  </si>
+  <si>
+    <t>14/05/2024</t>
+  </si>
+  <si>
+    <t>15/05/2024</t>
+  </si>
+  <si>
+    <t>4</t>
+  </si>
+  <si>
+    <t>Nhom test xoa loaij nhom</t>
+  </si>
+  <si>
+    <t>Test Xoa Loai nhom</t>
+  </si>
+  <si>
+    <t>09/06/2024</t>
+  </si>
+  <si>
+    <t>11/06/2024</t>
+  </si>
+  <si>
+    <t>3 ngày</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>Nhóm mới</t>
+  </si>
+  <si>
+    <t>MentorUS</t>
+  </si>
+  <si>
+    <t>11/05/2024</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>Test xoá nhóm</t>
+  </si>
+  <si>
+    <t>19/05/2024</t>
+  </si>
+  <si>
+    <t>20/05/2024</t>
+  </si>
+  <si>
+    <t>7</t>
+  </si>
+  <si>
+    <t>Nhóm chỉ mình tôi</t>
+  </si>
+  <si>
+    <t>20/05/2025</t>
+  </si>
+  <si>
+    <t>12 tháng, 7 ngày</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>Test Xoa Kenh</t>
+  </si>
+  <si>
+    <t>29/05/2024</t>
+  </si>
+  <si>
+    <t>9</t>
+  </si>
+  <si>
+    <t>Vui nhom</t>
+  </si>
+  <si>
+    <t>08/06/2024</t>
+  </si>
+  <si>
+    <t>4 ngày</t>
+  </si>
+  <si>
+    <t>10</t>
+  </si>
+  <si>
+    <t>Nhóm mới 123</t>
+  </si>
+  <si>
+    <t>11</t>
+  </si>
+  <si>
+    <t>MENTORUS DEMO 21/05 test</t>
+  </si>
+  <si>
+    <t>22/05/2024</t>
+  </si>
+  <si>
+    <t>23/05/2024</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>Xoa Nhom 1</t>
+  </si>
+  <si>
+    <t>15/06/2024</t>
+  </si>
+  <si>
+    <t>7 ngày</t>
+  </si>
+  <si>
+    <t>13</t>
+  </si>
+  <si>
+    <t>MENTORUS DEMO 22/05</t>
+  </si>
+  <si>
+    <t>31/05/2024</t>
+  </si>
+  <si>
+    <t>10 ngày</t>
+  </si>
+  <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>Test Note333333333</t>
+  </si>
+  <si>
+    <t>17/06/2024</t>
+  </si>
+  <si>
+    <t>19/06/2024</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>Nhom 2</t>
+  </si>
+  <si>
+    <t>Loại nhóm cần chuyển nhóm qua</t>
+  </si>
+  <si>
+    <t>22/06/2024</t>
+  </si>
+  <si>
+    <t>14 ngày</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>Test hihi</t>
+  </si>
+  <si>
+    <t>19 ngày</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>Nhóm 1</t>
+  </si>
+  <si>
+    <t>12/06/2024</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
+    <t>Demo</t>
+  </si>
+  <si>
+    <t>24/07/2024</t>
+  </si>
+  <si>
+    <t>25/07/2024</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
+    <t>fd</t>
+  </si>
+  <si>
+    <t>11/07/2024</t>
+  </si>
+  <si>
+    <t>12/07/2024</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>Import group 2</t>
+  </si>
+  <si>
+    <t>Đang hoạt động</t>
+  </si>
+  <si>
+    <t>01/01/2024</t>
+  </si>
+  <si>
+    <t>01/01/2025</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>Nhom gi do1</t>
+  </si>
+  <si>
+    <t>18/06/2024</t>
+  </si>
+  <si>
+    <t>30/06/2025</t>
+  </si>
+  <si>
+    <t>12 tháng, 17 ngày</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>Test forward</t>
+  </si>
+  <si>
+    <t>25/05/2025</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>Test</t>
+  </si>
+  <si>
+    <t>15/05/2025</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Thực tập dự án tốt nghiệp</t>
+  </si>
+  <si>
+    <t>04/08/2024</t>
+  </si>
+  <si>
+    <t>06/08/2024</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Hệ thống kết nối sinh viên và cựu
+sinh viên</t>
+  </si>
+  <si>
+    <t>26</t>
+  </si>
+  <si>
+    <t>Hệ thống kết nối sinh viên và cựu sinh viên trường đại học Khoa Học Tự Nhiên TP.HCM</t>
+  </si>
+  <si>
+    <t>02/08/2024</t>
+  </si>
+  <si>
+    <t>31/08/2024</t>
+  </si>
+  <si>
+    <t>1 tháng</t>
+  </si>
+  <si>
+    <t>27</t>
+  </si>
+  <si>
+    <t>MENTORUS DEMO 21/05</t>
+  </si>
+  <si>
+    <t>21/05/2024</t>
+  </si>
+  <si>
+    <t>22/05/2025</t>
+  </si>
+  <si>
+    <t>28</t>
+  </si>
+  <si>
+    <t>Import group 1</t>
+  </si>
+  <si>
+    <t>29</t>
+  </si>
+  <si>
+    <t>Test import group 2</t>
+  </si>
+  <si>
+    <t>Loại nhóm sẽ xoá</t>
+  </si>
+  <si>
+    <t>Chưa bắt đầu</t>
+  </si>
+  <si>
+    <t>01/01/2026</t>
+  </si>
+  <si>
+    <t>12 tháng, 6 ngày</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>Test import group 1</t>
+  </si>
+  <si>
+    <t>Xoa loai nhom 1</t>
   </si>
 </sst>
 </file>
@@ -129,9 +490,37 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFill="true" applyFont="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="4" xfId="0" applyBorder="true" applyFill="true"/>
   </cellXfs>
@@ -140,15 +529,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G31"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="3.83203125" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="22.30859375" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="6.43359375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="4.05078125" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="67.80859375" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="26.34765625" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="13.27734375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="15.46875" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="15.9609375" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.984375" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -161,27 +554,707 @@
       <c r="C1" t="s" s="1">
         <v>2</v>
       </c>
+      <c r="D1" t="s" s="1">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="1">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="1">
+        <v>6</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>5</v>
+        <v>9</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="3" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="B3" s="3" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="G4" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5" s="5" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>33</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="G6" s="6" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B8" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="G8" s="8" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="D9" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="E9" s="9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>9</v>
+      </c>
+      <c r="D10" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>28</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" s="11" t="s">
+        <v>36</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="B12" s="12" t="s">
+        <v>52</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="D12" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="E12" s="12" t="s">
+        <v>53</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>54</v>
+      </c>
+      <c r="G12" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="13" t="s">
+        <v>55</v>
+      </c>
+      <c r="B13" s="13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="F13" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="G13" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="E14" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="F14" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="15" t="s">
+        <v>63</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>64</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="E15" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="G15" s="15" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="16" t="s">
+        <v>67</v>
+      </c>
+      <c r="B16" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="C16" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>47</v>
+      </c>
+      <c r="F16" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="G16" s="16" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="17" t="s">
+        <v>72</v>
+      </c>
+      <c r="B17" s="17" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>16</v>
+      </c>
+      <c r="E17" s="17" t="s">
+        <v>18</v>
+      </c>
+      <c r="F17" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="G17" s="17" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="18" t="s">
+        <v>75</v>
+      </c>
+      <c r="B18" s="18" t="s">
+        <v>76</v>
+      </c>
+      <c r="C18" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="D18" s="18" t="s">
+        <v>16</v>
+      </c>
+      <c r="E18" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" s="18" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="B19" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="C19" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="D19" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="20" t="s">
+        <v>16</v>
+      </c>
+      <c r="E20" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="F20" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G20" s="20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="B21" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="C21" s="21" t="s">
+        <v>9</v>
+      </c>
+      <c r="D21" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="E21" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="F21" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="21" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="22" t="s">
+        <v>91</v>
+      </c>
+      <c r="B22" s="22" t="s">
+        <v>92</v>
+      </c>
+      <c r="C22" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="D22" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="E22" s="22" t="s">
+        <v>93</v>
+      </c>
+      <c r="F22" s="22" t="s">
+        <v>94</v>
+      </c>
+      <c r="G22" s="22" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="23" t="s">
+        <v>96</v>
+      </c>
+      <c r="B23" s="23" t="s">
+        <v>97</v>
+      </c>
+      <c r="C23" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="E23" s="23" t="s">
+        <v>22</v>
+      </c>
+      <c r="F23" s="23" t="s">
+        <v>98</v>
+      </c>
+      <c r="G23" s="23" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="24" t="s">
+        <v>99</v>
+      </c>
+      <c r="B24" s="24" t="s">
+        <v>100</v>
+      </c>
+      <c r="C24" s="24" t="s">
+        <v>9</v>
+      </c>
+      <c r="D24" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24" s="24" t="s">
+        <v>101</v>
+      </c>
+      <c r="G24" s="24" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="25" t="s">
+        <v>102</v>
+      </c>
+      <c r="B25" s="25" t="s">
+        <v>103</v>
+      </c>
+      <c r="C25" s="25" t="s">
+        <v>104</v>
+      </c>
+      <c r="D25" s="25" t="s">
+        <v>88</v>
+      </c>
+      <c r="E25" s="25" t="s">
+        <v>105</v>
+      </c>
+      <c r="F25" s="25" t="s">
+        <v>106</v>
+      </c>
+      <c r="G25" s="25" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="26" t="s">
+        <v>107</v>
+      </c>
+      <c r="B26" s="26" t="s">
+        <v>108</v>
+      </c>
+      <c r="C26" s="26" t="s">
+        <v>104</v>
+      </c>
+      <c r="D26" s="26" t="s">
+        <v>88</v>
+      </c>
+      <c r="E26" s="26" t="s">
+        <v>89</v>
+      </c>
+      <c r="F26" s="26" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="26" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="27" t="s">
+        <v>109</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>110</v>
+      </c>
+      <c r="C27" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D27" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="E27" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="F27" s="27" t="s">
+        <v>112</v>
+      </c>
+      <c r="G27" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="C28" s="28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28" s="28" t="s">
+        <v>88</v>
+      </c>
+      <c r="E28" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="F28" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="28" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="29" t="s">
+        <v>118</v>
+      </c>
+      <c r="B29" s="29" t="s">
+        <v>119</v>
+      </c>
+      <c r="C29" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="E29" s="29" t="s">
+        <v>89</v>
+      </c>
+      <c r="F29" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="G29" s="29" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="30" t="s">
+        <v>120</v>
+      </c>
+      <c r="B30" s="30" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="30" t="s">
+        <v>122</v>
+      </c>
+      <c r="D30" s="30" t="s">
+        <v>123</v>
+      </c>
+      <c r="E30" s="30" t="s">
+        <v>90</v>
+      </c>
+      <c r="F30" s="30" t="s">
+        <v>124</v>
+      </c>
+      <c r="G30" s="30" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" s="31" t="s">
+        <v>127</v>
+      </c>
+      <c r="C31" s="31" t="s">
+        <v>128</v>
+      </c>
+      <c r="D31" s="31" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="31" t="s">
+        <v>90</v>
+      </c>
+      <c r="F31" s="31" t="s">
+        <v>124</v>
+      </c>
+      <c r="G31" s="31" t="s">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
